--- a/biology/Zoologie/Eleleis/Eleleis.xlsx
+++ b/biology/Zoologie/Eleleis/Eleleis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eleleis est un genre d'araignées aranéomorphes de la famille des Prodidomidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleleis est un genre d'araignées aranéomorphes de la famille des Prodidomidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique australe et au Cap-Vert[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique australe et au Cap-Vert.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 1,72 à 3,90 mm et les femelles de 1,98 à 3,72 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 1,72 à 3,90 mm et les femelles de 1,98 à 3,72 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.0, 31/01/2022)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.0, 31/01/2022) :
 Eleleis crinita Simon, 1893
 Eleleis etosha Rodrigues &amp; Rheims, 2020
 Eleleis haddadi Rodrigues &amp; Rheims, 2020
@@ -612,9 +630,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Simon en 1893 dans les Prodidomidae. Il est placé dans les Gnaphosidae par Azevedo, Griswold et Santos en 2018[4] puis dans les Prodidomidae par Azevedo, Bougie, Carboni, Hedin et Ramírez en 2022[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Simon en 1893 dans les Prodidomidae. Il est placé dans les Gnaphosidae par Azevedo, Griswold et Santos en 2018 puis dans les Prodidomidae par Azevedo, Bougie, Carboni, Hedin et Ramírez en 2022.
 </t>
         </is>
       </c>
@@ -643,7 +663,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Simon, 1893 : Histoire naturelle des araignées. Paris, vol. 1, p. 257-488 (texte intégral).</t>
         </is>
